--- a/app/assets/data/mappings.xlsx
+++ b/app/assets/data/mappings.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\rds-website\app\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB5245-9674-494D-9927-43880012C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47197172-34B4-42CA-8DB4-086C55ED7585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C4DC5049-A897-4525-B8FB-A80DFE9F3877}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{C4DC5049-A897-4525-B8FB-A80DFE9F3877}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="CABO" sheetId="2" r:id="rId2"/>
+    <sheet name="Love Letter" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Blue</t>
   </si>
@@ -67,6 +68,9 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>Love Letter</t>
   </si>
 </sst>
 </file>
@@ -168,14 +172,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00A5E1"/>
+      <color rgb="FF4BB84B"/>
+      <color rgb="FFFF7F2A"/>
+      <color rgb="FF615FAA"/>
+      <color rgb="FFED1D24"/>
       <color rgb="FF37C8AB"/>
       <color rgb="FFA6A7B1"/>
       <color rgb="FFFED606"/>
-      <color rgb="FFFF7F2A"/>
-      <color rgb="FF615FAA"/>
-      <color rgb="FF4BB84B"/>
-      <color rgb="FF00A5E1"/>
-      <color rgb="FFED1D24"/>
       <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
@@ -509,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D872A-CE54-4E4B-A108-A5815E3936E9}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,4 +1515,508 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0364955-1816-4FED-97D0-2DC7962A6D35}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-3</v>
+      </c>
+      <c r="B3">
+        <v>-3</v>
+      </c>
+      <c r="C3">
+        <v>-3</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/assets/data/mappings.xlsx
+++ b/app/assets/data/mappings.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\rds-website\app\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47197172-34B4-42CA-8DB4-086C55ED7585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB328D-BB8C-479F-815B-D938B9D7862E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{C4DC5049-A897-4525-B8FB-A80DFE9F3877}"/>
+    <workbookView xWindow="38280" yWindow="5745" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{C4DC5049-A897-4525-B8FB-A80DFE9F3877}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="CABO" sheetId="2" r:id="rId2"/>
     <sheet name="Love Letter" sheetId="3" r:id="rId3"/>
+    <sheet name="Stonks" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>Blue</t>
   </si>
@@ -71,6 +72,39 @@
   </si>
   <si>
     <t>Love Letter</t>
+  </si>
+  <si>
+    <t>Stonks</t>
+  </si>
+  <si>
+    <t>65 markets cards</t>
+  </si>
+  <si>
+    <t>1-4 - 1 stock</t>
+  </si>
+  <si>
+    <t>5-6 - 2 stock</t>
+  </si>
+  <si>
+    <t>7 - 3 stock</t>
+  </si>
+  <si>
+    <t>8 - 1 stock</t>
+  </si>
+  <si>
+    <t>9 - 2 stock</t>
+  </si>
+  <si>
+    <t>10-13 - 1 stock</t>
+  </si>
+  <si>
+    <t>Gray - 5 speculation cards</t>
+  </si>
+  <si>
+    <t>Cards 1 - 2 market movement</t>
+  </si>
+  <si>
+    <t>Cards 2-5 - 1 market movement</t>
   </si>
 </sst>
 </file>
@@ -154,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -164,6 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,14 +207,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF00A5E1"/>
+      <color rgb="FFA6A7B1"/>
+      <color rgb="FF37C8AB"/>
+      <color rgb="FFFED606"/>
       <color rgb="FF4BB84B"/>
+      <color rgb="FFED1D24"/>
       <color rgb="FFFF7F2A"/>
       <color rgb="FF615FAA"/>
-      <color rgb="FFED1D24"/>
-      <color rgb="FF37C8AB"/>
-      <color rgb="FFA6A7B1"/>
-      <color rgb="FFFED606"/>
+      <color rgb="FF00A5E1"/>
       <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
@@ -514,7 +549,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection activeCell="H21" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0364955-1816-4FED-97D0-2DC7962A6D35}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -2019,4 +2054,558 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E791555E-D658-439D-90E4-C5D9EE7CBF05}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-3</v>
+      </c>
+      <c r="B3">
+        <v>-3</v>
+      </c>
+      <c r="C3">
+        <v>-3</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/assets/data/mappings.xlsx
+++ b/app/assets/data/mappings.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\rds-website\app\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB328D-BB8C-479F-815B-D938B9D7862E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162D7E63-263A-4FFF-8B6B-6D9AE47C138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5745" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{C4DC5049-A897-4525-B8FB-A80DFE9F3877}"/>
+    <workbookView xWindow="38280" yWindow="5745" windowWidth="25440" windowHeight="15270" activeTab="4" xr2:uid="{C4DC5049-A897-4525-B8FB-A80DFE9F3877}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="CABO" sheetId="2" r:id="rId2"/>
     <sheet name="Love Letter" sheetId="3" r:id="rId3"/>
     <sheet name="Stonks" sheetId="4" r:id="rId4"/>
+    <sheet name="Worst In Show" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Blue</t>
   </si>
@@ -105,6 +106,18 @@
   </si>
   <si>
     <t>Cards 2-5 - 1 market movement</t>
+  </si>
+  <si>
+    <t>Worst in Show</t>
+  </si>
+  <si>
+    <t>5 bid dice</t>
+  </si>
+  <si>
+    <t>5 obedience cards (0 cards)</t>
+  </si>
+  <si>
+    <t>1-15 dog cards in 4 suits</t>
   </si>
 </sst>
 </file>
@@ -188,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -198,7 +211,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,14 +219,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7F2A"/>
+      <color rgb="FF615FAA"/>
+      <color rgb="FFED1D24"/>
+      <color rgb="FF4BB84B"/>
+      <color rgb="FF00A5E1"/>
       <color rgb="FFA6A7B1"/>
       <color rgb="FF37C8AB"/>
       <color rgb="FFFED606"/>
-      <color rgb="FF4BB84B"/>
-      <color rgb="FFED1D24"/>
-      <color rgb="FFFF7F2A"/>
-      <color rgb="FF615FAA"/>
-      <color rgb="FF00A5E1"/>
       <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
@@ -548,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D872A-CE54-4E4B-A108-A5815E3936E9}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H21" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
@@ -2060,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E791555E-D658-439D-90E4-C5D9EE7CBF05}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -2143,7 +2155,7 @@
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
@@ -2603,6 +2615,525 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3FD5B2-0367-4074-B462-A4CEEA4D2A02}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-3</v>
+      </c>
+      <c r="B3">
+        <v>-3</v>
+      </c>
+      <c r="C3">
+        <v>-3</v>
+      </c>
+      <c r="D3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
